--- a/xlsx/尤塞米提谷_intext.xlsx
+++ b/xlsx/尤塞米提谷_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_尤塞米提谷</t>
+    <t>政策_政策_美国_尤塞米提谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%8E%E9%87%91%E6%B2%B3</t>
